--- a/excel files/school_khoi.xlsx
+++ b/excel files/school_khoi.xlsx
@@ -33,34 +33,34 @@
     <t>khoi_tit</t>
   </si>
   <si>
-    <t>Khá»‘i 6</t>
-  </si>
-  <si>
-    <t>Khá»‘i 6 THPT Minh Khai</t>
-  </si>
-  <si>
-    <t>Khá»‘i 7</t>
-  </si>
-  <si>
-    <t>Khá»‘i 7 THPT Minh Khai</t>
-  </si>
-  <si>
-    <t>Khá»‘i 8</t>
-  </si>
-  <si>
-    <t>Khá»‘i 8 THPT Minh Khai</t>
-  </si>
-  <si>
-    <t>Khá»‘i 9</t>
-  </si>
-  <si>
-    <t>Khá»‘i 9 THPT Minh Khai</t>
-  </si>
-  <si>
-    <t>ToÃ n trÆ°á»ng</t>
-  </si>
-  <si>
-    <t>Táº¥t cáº£ cÃ¡c khá»‘i</t>
+    <t>Khối 6</t>
+  </si>
+  <si>
+    <t>Khối 6 THPT Minh Khai</t>
+  </si>
+  <si>
+    <t>Khối 7</t>
+  </si>
+  <si>
+    <t>Khối 7 THPT Minh Khai</t>
+  </si>
+  <si>
+    <t>Khối 8</t>
+  </si>
+  <si>
+    <t>Khối 8 THPT Minh Khai</t>
+  </si>
+  <si>
+    <t>Khối 9</t>
+  </si>
+  <si>
+    <t>Khối 9 THPT Minh Khai</t>
+  </si>
+  <si>
+    <t>Toàn trường</t>
+  </si>
+  <si>
+    <t>Tất cả các khối</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -959,5 +961,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>